--- a/app/fisierele/adaugauseri.xlsx
+++ b/app/fisierele/adaugauseri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Index A\fisiere excel\userii de la nutritie3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4E35D1-E7E5-4DD8-9B0A-845441BC62BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1763919A-1B9C-4091-8D00-C6ED95ED6E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6495" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>dana.gejl@gmail.com</t>
   </si>
   <si>
     <t>Gejl-Hansen Daniela</t>
+  </si>
+  <si>
+    <t>alexapatroc@gmail.com</t>
+  </si>
+  <si>
+    <t>Alexandra Haita</t>
   </si>
 </sst>
 </file>
@@ -348,24 +354,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>753475226</v>
       </c>
     </row>
   </sheetData>

--- a/app/fisierele/adaugauseri.xlsx
+++ b/app/fisierele/adaugauseri.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Index A\fisiere excel\userii de la nutritie3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1763919A-1B9C-4091-8D00-C6ED95ED6E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88A1B10-8A22-4DE5-BDBC-AD1ED68F4CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>dana.gejl@gmail.com</t>
+    <t>ana_maria_gules13@yahoo.com</t>
   </si>
   <si>
-    <t>Gejl-Hansen Daniela</t>
-  </si>
-  <si>
-    <t>alexapatroc@gmail.com</t>
-  </si>
-  <si>
-    <t>Alexandra Haita</t>
+    <t>Bogdan Ana Saran</t>
   </si>
 </sst>
 </file>
@@ -354,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,16 +368,8 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>753475226</v>
+      <c r="C1">
+        <v>741967453</v>
       </c>
     </row>
   </sheetData>

--- a/app/fisierele/adaugauseri.xlsx
+++ b/app/fisierele/adaugauseri.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__nutritie_nov 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88A1B10-8A22-4DE5-BDBC-AD1ED68F4CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB66690-015D-4700-889D-F1A37B23CAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,1984 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>ana_maria_gules13@yahoo.com</t>
-  </si>
-  <si>
-    <t>Bogdan Ana Saran</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="657">
+  <si>
+    <t>Neacsu Valeria</t>
+  </si>
+  <si>
+    <t>Dolteanu Suavina Irina</t>
+  </si>
+  <si>
+    <t>Badocan Ioana</t>
+  </si>
+  <si>
+    <t>Minca Cristina</t>
+  </si>
+  <si>
+    <t>Somesan Viorica</t>
+  </si>
+  <si>
+    <t>Costea Marioara</t>
+  </si>
+  <si>
+    <t>ioanabadocan@yahoo.com</t>
+  </si>
+  <si>
+    <t>sidhi.szilvasi@yahoo.com</t>
+  </si>
+  <si>
+    <t>mirela.gafencu@gmail.com</t>
+  </si>
+  <si>
+    <t>cristina.bonea@hotmail.com</t>
+  </si>
+  <si>
+    <t>marie.costea@yahoo.fr</t>
+  </si>
+  <si>
+    <t>Ionescu Viorel</t>
+  </si>
+  <si>
+    <t>Beian Raluca Maria</t>
+  </si>
+  <si>
+    <t>Done Florin</t>
+  </si>
+  <si>
+    <t>Gurau Anca</t>
+  </si>
+  <si>
+    <t>Burnete Nicoleta</t>
+  </si>
+  <si>
+    <t>Pascalau Monica</t>
+  </si>
+  <si>
+    <t>Gherase Claudia</t>
+  </si>
+  <si>
+    <t>Fara Dan</t>
+  </si>
+  <si>
+    <t>Ciucu Stefania</t>
+  </si>
+  <si>
+    <t>Gutan Ioana</t>
+  </si>
+  <si>
+    <t>Istrate Diana</t>
+  </si>
+  <si>
+    <t>Tanase Stefan</t>
+  </si>
+  <si>
+    <t>Ion Lili</t>
+  </si>
+  <si>
+    <t>Vladescu Rodica</t>
+  </si>
+  <si>
+    <t>Constantin Mirabela</t>
+  </si>
+  <si>
+    <t>Mocica Diana</t>
+  </si>
+  <si>
+    <t>Rusu Delia</t>
+  </si>
+  <si>
+    <t>Ion Mihaela</t>
+  </si>
+  <si>
+    <t>Peru Natalia</t>
+  </si>
+  <si>
+    <t>Megyesi Istvan Arpad</t>
+  </si>
+  <si>
+    <t>Venter Timea Noemi</t>
+  </si>
+  <si>
+    <t>Zaloj Tatiana</t>
+  </si>
+  <si>
+    <t>Galatus Ramona</t>
+  </si>
+  <si>
+    <t>Teutsch Oana</t>
+  </si>
+  <si>
+    <t>Mudava Viviana</t>
+  </si>
+  <si>
+    <t>Simion Viorica</t>
+  </si>
+  <si>
+    <t>Niculae Irina</t>
+  </si>
+  <si>
+    <t>Sandu Cristina</t>
+  </si>
+  <si>
+    <t>Ichim Gabriela</t>
+  </si>
+  <si>
+    <t>Fazakas Zita</t>
+  </si>
+  <si>
+    <t>Dintiu Ia</t>
+  </si>
+  <si>
+    <t>Zahner Florina</t>
+  </si>
+  <si>
+    <t>Constantin Corina</t>
+  </si>
+  <si>
+    <t>Sgircea Cornel</t>
+  </si>
+  <si>
+    <t>Croitoru Oana</t>
+  </si>
+  <si>
+    <t>Acsinte Catalina</t>
+  </si>
+  <si>
+    <t>Fekeas Sorina</t>
+  </si>
+  <si>
+    <t>Vasilica Aurelia</t>
+  </si>
+  <si>
+    <t>Vandra Ana Maria</t>
+  </si>
+  <si>
+    <t>Szilveszter Eva</t>
+  </si>
+  <si>
+    <t>Pescaru Iulia</t>
+  </si>
+  <si>
+    <t>Farcas Monica</t>
+  </si>
+  <si>
+    <t>Gradinaru Valentina</t>
+  </si>
+  <si>
+    <t>Carmen Olareanu</t>
+  </si>
+  <si>
+    <t>Racoti Daniela</t>
+  </si>
+  <si>
+    <t>Cimpoi Vasilica Cristina</t>
+  </si>
+  <si>
+    <t>Boca Nicoleta</t>
+  </si>
+  <si>
+    <t>Stoica Mirela</t>
+  </si>
+  <si>
+    <t>Beta Gabriela</t>
+  </si>
+  <si>
+    <t>Nechit Romulus</t>
+  </si>
+  <si>
+    <t>Balanean Claudia</t>
+  </si>
+  <si>
+    <t>Nicolescu Carmen</t>
+  </si>
+  <si>
+    <t>Motfolea Cristina</t>
+  </si>
+  <si>
+    <t>Curtui Luminita</t>
+  </si>
+  <si>
+    <t>Carp Dorina</t>
+  </si>
+  <si>
+    <t>Ioan Gheorghita</t>
+  </si>
+  <si>
+    <t>Faur Dalia</t>
+  </si>
+  <si>
+    <t>Chazli Mihaela</t>
+  </si>
+  <si>
+    <t>Preda Dana</t>
+  </si>
+  <si>
+    <t>Vunvulea Ioana</t>
+  </si>
+  <si>
+    <t>Badau Florinel Dorin</t>
+  </si>
+  <si>
+    <t>Coca Cristina Mirela</t>
+  </si>
+  <si>
+    <t>Strant Mirela</t>
+  </si>
+  <si>
+    <t>Uruioc Tatiana</t>
+  </si>
+  <si>
+    <t>Iliescu Diana</t>
+  </si>
+  <si>
+    <t>Mihai Gabriel</t>
+  </si>
+  <si>
+    <t>Anghel Adrian</t>
+  </si>
+  <si>
+    <t>Bulcu Daniel Petru</t>
+  </si>
+  <si>
+    <t>Ion Pavel</t>
+  </si>
+  <si>
+    <t>Stancescu Anca</t>
+  </si>
+  <si>
+    <t>Dana Kiss</t>
+  </si>
+  <si>
+    <t>Mitchell Erzsebet Sophia</t>
+  </si>
+  <si>
+    <t>Gal Magda</t>
+  </si>
+  <si>
+    <t>Repede Aurora Alina</t>
+  </si>
+  <si>
+    <t>Popa Iulia</t>
+  </si>
+  <si>
+    <t>Domuta MIhaela</t>
+  </si>
+  <si>
+    <t>Vladila Lavinia Mihaela Evelia</t>
+  </si>
+  <si>
+    <t>Condrat Daniela</t>
+  </si>
+  <si>
+    <t>Popa Diana Milena</t>
+  </si>
+  <si>
+    <t>Vacaru Viorica</t>
+  </si>
+  <si>
+    <t>Bordas Zsolt</t>
+  </si>
+  <si>
+    <t>Sandu Diana</t>
+  </si>
+  <si>
+    <t>Muresan Simona</t>
+  </si>
+  <si>
+    <t>Neagu Georgeta</t>
+  </si>
+  <si>
+    <t>Tamas Andras</t>
+  </si>
+  <si>
+    <t>Fertig Ilona</t>
+  </si>
+  <si>
+    <t>Oloier Violeta Mihaela</t>
+  </si>
+  <si>
+    <t>Culcea Constanta</t>
+  </si>
+  <si>
+    <t>Hritcan Ionescu Raluca</t>
+  </si>
+  <si>
+    <t>Popescu Cornelia</t>
+  </si>
+  <si>
+    <t>Andriescu Cristina Simona</t>
+  </si>
+  <si>
+    <t>Angheluta Aymone</t>
+  </si>
+  <si>
+    <t>Costea Tatiana Simona</t>
+  </si>
+  <si>
+    <t>Apostol Mihaela</t>
+  </si>
+  <si>
+    <t>Iovu Mariana</t>
+  </si>
+  <si>
+    <t>Moldovan Dan</t>
+  </si>
+  <si>
+    <t>Matei Florentina</t>
+  </si>
+  <si>
+    <t>Teodorescu Soare</t>
+  </si>
+  <si>
+    <t>Sarghiuta Ewano</t>
+  </si>
+  <si>
+    <t>Bazavan Andra Ellana</t>
+  </si>
+  <si>
+    <t>Nuta Emilia</t>
+  </si>
+  <si>
+    <t>Crismaru Lucian</t>
+  </si>
+  <si>
+    <t>Zbuchea Andrei</t>
+  </si>
+  <si>
+    <t>Cicos Carmen Bianca</t>
+  </si>
+  <si>
+    <t>Gavrilovici Ingrid</t>
+  </si>
+  <si>
+    <t>Maxim Diana</t>
+  </si>
+  <si>
+    <t>Dragan Despina</t>
+  </si>
+  <si>
+    <t>Breahna Gabriela</t>
+  </si>
+  <si>
+    <t>Groza Dorina</t>
+  </si>
+  <si>
+    <t>Gafencu Mirela</t>
+  </si>
+  <si>
+    <t>Ile Catrinel</t>
+  </si>
+  <si>
+    <t>Vlad Andreea</t>
+  </si>
+  <si>
+    <t>Zayadna Maria</t>
+  </si>
+  <si>
+    <t>Rencheu Anastasia</t>
+  </si>
+  <si>
+    <t>Catrinescu Daniela</t>
+  </si>
+  <si>
+    <t>Hudrea Bazil Dinu</t>
+  </si>
+  <si>
+    <t>Bonea Elena Cristina</t>
+  </si>
+  <si>
+    <t>Corocaescu Gabriela Georgeta</t>
+  </si>
+  <si>
+    <t>Chetan Anca</t>
+  </si>
+  <si>
+    <t>Alexeiciuc Angela</t>
+  </si>
+  <si>
+    <t>Lebedev Nelea Adelpha</t>
+  </si>
+  <si>
+    <t>Scriba Cezar</t>
+  </si>
+  <si>
+    <t>Anghelache Anca</t>
+  </si>
+  <si>
+    <t>Magyar Henrietta</t>
+  </si>
+  <si>
+    <t>Mirea Cristian Laurentiu</t>
+  </si>
+  <si>
+    <t>Marcovici Maria</t>
+  </si>
+  <si>
+    <t>Leonte Gabriela</t>
+  </si>
+  <si>
+    <t>Andries Mihaela</t>
+  </si>
+  <si>
+    <t>Gorga Mariana</t>
+  </si>
+  <si>
+    <t>Titire Ana Maria</t>
+  </si>
+  <si>
+    <t>Grozea Loredana</t>
+  </si>
+  <si>
+    <t>Coman Ioana</t>
+  </si>
+  <si>
+    <t>Matei Lucica</t>
+  </si>
+  <si>
+    <t>Mocanu Narcis</t>
+  </si>
+  <si>
+    <t>Iordache Ana</t>
+  </si>
+  <si>
+    <t>Cimpean Cristina</t>
+  </si>
+  <si>
+    <t>Adumitresei Georgeta Ainara</t>
+  </si>
+  <si>
+    <t>Marcu Carmen</t>
+  </si>
+  <si>
+    <t>Stoicescu Mihaela</t>
+  </si>
+  <si>
+    <t>Voicu Constantin</t>
+  </si>
+  <si>
+    <t>Ungurean Viorica</t>
+  </si>
+  <si>
+    <t>Covaci Cerasela Antonela</t>
+  </si>
+  <si>
+    <t>Miauta Costel</t>
+  </si>
+  <si>
+    <t>Sabau Gabriela</t>
+  </si>
+  <si>
+    <t>Dudau Elena</t>
+  </si>
+  <si>
+    <t>Nalbantu Angela</t>
+  </si>
+  <si>
+    <t>Szabo Doinita Doina</t>
+  </si>
+  <si>
+    <t>Sorin Grosu</t>
+  </si>
+  <si>
+    <t>Stoica Robertina Amira</t>
+  </si>
+  <si>
+    <t>Selaru Dana</t>
+  </si>
+  <si>
+    <t>Busan Augustina</t>
+  </si>
+  <si>
+    <t>Ivanov Daniella</t>
+  </si>
+  <si>
+    <t>Ionescu Carmen</t>
+  </si>
+  <si>
+    <t>Teodorescu Claudius</t>
+  </si>
+  <si>
+    <t>Bohm Boglarka Apollinea</t>
+  </si>
+  <si>
+    <t>Baltoiu Daniela</t>
+  </si>
+  <si>
+    <t>Aioanei Constantin</t>
+  </si>
+  <si>
+    <t>Marin Nina</t>
+  </si>
+  <si>
+    <t>Munteanu Carmen</t>
+  </si>
+  <si>
+    <t>vioius314@gmail.com</t>
+  </si>
+  <si>
+    <t>shaktyraluca@yahoo.com</t>
+  </si>
+  <si>
+    <t>florynn85@yahoo.com</t>
+  </si>
+  <si>
+    <t>ancag2@yahoo.com</t>
+  </si>
+  <si>
+    <t>burnetenicoleta31@gmail.com</t>
+  </si>
+  <si>
+    <t>shanti55mm@yahoo.com</t>
+  </si>
+  <si>
+    <t>bogdan.claudia_t@yahoo.com</t>
+  </si>
+  <si>
+    <t>dan_fara@yahoo.com</t>
+  </si>
+  <si>
+    <t>stefaniaciucu03@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>gentilisadakini@gmail.com</t>
+  </si>
+  <si>
+    <t>sublima.somacentre@gmail.com</t>
+  </si>
+  <si>
+    <t>shiva_nataraja08@yahoo.com</t>
+  </si>
+  <si>
+    <t>lili_ion@hotmail.com</t>
+  </si>
+  <si>
+    <t>vladescu.rodica@gmail.com</t>
+  </si>
+  <si>
+    <t>mmirabelam@yahoo.com</t>
+  </si>
+  <si>
+    <t>diana_mocica@yahoo.com</t>
+  </si>
+  <si>
+    <t>delia2211@gmail.com</t>
+  </si>
+  <si>
+    <t>mihaelaion04@gmail.com</t>
+  </si>
+  <si>
+    <t>pnati27@yahoo.com</t>
+  </si>
+  <si>
+    <t>megyesi66@yahoo.com</t>
+  </si>
+  <si>
+    <t>sweet_noni89@yahoo.com</t>
+  </si>
+  <si>
+    <t>tzaloj@yahoo.com</t>
+  </si>
+  <si>
+    <t>lilabhoga@gmail.com</t>
+  </si>
+  <si>
+    <t>ariatna2006ro@yahoo.com</t>
+  </si>
+  <si>
+    <t>vivianamudava@gmail.com</t>
+  </si>
+  <si>
+    <t>viomih@yahoo.com</t>
+  </si>
+  <si>
+    <t>irinaaniculae@gmail.com</t>
+  </si>
+  <si>
+    <t>csandu@mail.usf.edu</t>
+  </si>
+  <si>
+    <t>gabichim1@yahoo.com</t>
+  </si>
+  <si>
+    <t>fazzita@yahoo.com</t>
+  </si>
+  <si>
+    <t>kalyaster@gmail.com</t>
+  </si>
+  <si>
+    <t>florinazahner@web.de</t>
+  </si>
+  <si>
+    <t>corina2constantin@protonmail.com</t>
+  </si>
+  <si>
+    <t>cornel_sgircea@yahoo.com</t>
+  </si>
+  <si>
+    <t>oana.lidia.croitoru@gmail.com</t>
+  </si>
+  <si>
+    <t>catalinatruf99@yahoo.com</t>
+  </si>
+  <si>
+    <t>sorina_fekeas@yahoo.de</t>
+  </si>
+  <si>
+    <t>aurvasilica@mail.ru</t>
+  </si>
+  <si>
+    <t>amvandra@gmail.com</t>
+  </si>
+  <si>
+    <t>evaszilveszter@gmail.com</t>
+  </si>
+  <si>
+    <t>iuliapescaru@yahoo.fr</t>
+  </si>
+  <si>
+    <t>farcas_monica@yahoo.com</t>
+  </si>
+  <si>
+    <t>bochis.cristina26@yahoo.com</t>
+  </si>
+  <si>
+    <t>valentinagradinaru@yahoo.com</t>
+  </si>
+  <si>
+    <t>diana.panciu@gmail.com</t>
+  </si>
+  <si>
+    <t>carmenolareanu@gmail.com</t>
+  </si>
+  <si>
+    <t>d_daniella_r@yahoo.com</t>
+  </si>
+  <si>
+    <t>sorincsv@yahoo.com</t>
+  </si>
+  <si>
+    <t>cristinacimpoi@yahoo.com</t>
+  </si>
+  <si>
+    <t>bocanicoleta7@yahoo.com</t>
+  </si>
+  <si>
+    <t>stoicamirela968@gmail.com</t>
+  </si>
+  <si>
+    <t>gabi.beta2@gmail.com</t>
+  </si>
+  <si>
+    <t>carmen_dela_ronda@yahoo.com</t>
+  </si>
+  <si>
+    <t>roalexis71@gmail.com</t>
+  </si>
+  <si>
+    <t>claudia.balanean@gmail.com</t>
+  </si>
+  <si>
+    <t>clnicolescu@yahoo.com</t>
+  </si>
+  <si>
+    <t>cristina_motfolea@yahoo.com</t>
+  </si>
+  <si>
+    <t>lumi_curtui@yahoo.com</t>
+  </si>
+  <si>
+    <t>dorinacarp@yahoo.ca</t>
+  </si>
+  <si>
+    <t>ioanhello@yahoo.com</t>
+  </si>
+  <si>
+    <t>faur_dalia@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>mihaelachazli@gmail.com</t>
+  </si>
+  <si>
+    <t>bacimihaela@gmail.com</t>
+  </si>
+  <si>
+    <t>danapreda26@gmail.com</t>
+  </si>
+  <si>
+    <t>v_ionela@yahoo.com</t>
+  </si>
+  <si>
+    <t>florinsharp@gmail.com</t>
+  </si>
+  <si>
+    <t>coca.cristina.mirela@gmail.com</t>
+  </si>
+  <si>
+    <t>marina_ivanov_up@yahoo.com</t>
+  </si>
+  <si>
+    <t>colacellenuta@yahoo.com</t>
+  </si>
+  <si>
+    <t>drmirela_s@yahoo.com</t>
+  </si>
+  <si>
+    <t>dacvira@yahoo.com</t>
+  </si>
+  <si>
+    <t>dianailiescu@hotmail.com</t>
+  </si>
+  <si>
+    <t>gabriel.mihai.ayus@gmail.com</t>
+  </si>
+  <si>
+    <t>adiang5@yahoo.com</t>
+  </si>
+  <si>
+    <t>daniel.bulcu@gmail.com</t>
+  </si>
+  <si>
+    <t>ionpavel49@yahoo.com</t>
+  </si>
+  <si>
+    <t>ancastancescu@yahoo.com</t>
+  </si>
+  <si>
+    <t>danakiss@gmail.com</t>
+  </si>
+  <si>
+    <t>bettybodi@hotmail.com</t>
+  </si>
+  <si>
+    <t>galmagda33@yahoo.com</t>
+  </si>
+  <si>
+    <t>olga_n22@inbox.ru</t>
+  </si>
+  <si>
+    <t>aurora_repede@yahoo.com</t>
+  </si>
+  <si>
+    <t>peteteia@yahoo.com</t>
+  </si>
+  <si>
+    <t>portofino_ro@yahoo.com</t>
+  </si>
+  <si>
+    <t>laviniavladila@yahoo.com</t>
+  </si>
+  <si>
+    <t>p_amalia@hotmail.fr</t>
+  </si>
+  <si>
+    <t>condratdaniela@yahoo.com</t>
+  </si>
+  <si>
+    <t>eglantine_linca@yahoo.com</t>
+  </si>
+  <si>
+    <t>milena_dia19@yahoo.com</t>
+  </si>
+  <si>
+    <t>vacaru.viorica@yahoo.com</t>
+  </si>
+  <si>
+    <t>bzs888@yahoo.com</t>
+  </si>
+  <si>
+    <t>s.diana2001@yahoo.com</t>
+  </si>
+  <si>
+    <t>simoneta7576@gmail.com</t>
+  </si>
+  <si>
+    <t>armoniediv@yahoo.com</t>
+  </si>
+  <si>
+    <t>tamas_andras@yahoo.com</t>
+  </si>
+  <si>
+    <t>fertigilona@gmail.com</t>
+  </si>
+  <si>
+    <t>oloiervm@yahoo.com</t>
+  </si>
+  <si>
+    <t>constantaculcea@yahoo.com</t>
+  </si>
+  <si>
+    <t>elisei.pharmacy@yahoo.com</t>
+  </si>
+  <si>
+    <t>cornelia1458@yahoo.com</t>
+  </si>
+  <si>
+    <t>laurusnobilis10@yahoo.com</t>
+  </si>
+  <si>
+    <t>mihalumi@yahoo.com</t>
+  </si>
+  <si>
+    <t>aymone.angheluta@gmail.com</t>
+  </si>
+  <si>
+    <t>karunasland@hotmail.com</t>
+  </si>
+  <si>
+    <t>elaapostol@yahoo.com</t>
+  </si>
+  <si>
+    <t>flavia9997@yahoo.com</t>
+  </si>
+  <si>
+    <t>dan_moldovan@yahoo.com</t>
+  </si>
+  <si>
+    <t>kalika_mai@yahoo.com</t>
+  </si>
+  <si>
+    <t>shivaismkashmirian@yahoo.com</t>
+  </si>
+  <si>
+    <t>tirolina9@yahoo.com</t>
+  </si>
+  <si>
+    <t>doinitakineto@yahoo.com</t>
+  </si>
+  <si>
+    <t>arjuna4949@yahoo.com</t>
+  </si>
+  <si>
+    <t>ed_firul_ariadnei@yahoo.com</t>
+  </si>
+  <si>
+    <t>emilianutza@yahoo.com</t>
+  </si>
+  <si>
+    <t>roluc99@yahoo.com</t>
+  </si>
+  <si>
+    <t>a_zbuchea@yahoo.com</t>
+  </si>
+  <si>
+    <t>white.song10@yahoo.com</t>
+  </si>
+  <si>
+    <t>ingridgala@yahoo.com</t>
+  </si>
+  <si>
+    <t>anamaria.piticas@yahoo.com</t>
+  </si>
+  <si>
+    <t>dianamaxim5@yahoo.com</t>
+  </si>
+  <si>
+    <t>bright555health@gmail.com</t>
+  </si>
+  <si>
+    <t>chrisnutris@gmail.com</t>
+  </si>
+  <si>
+    <t>Vella_ro@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>cioltan13@yahoo.com</t>
+  </si>
+  <si>
+    <t>gabi.breahna@gmail.com</t>
+  </si>
+  <si>
+    <t>dorina.groza@yahoo.com</t>
+  </si>
+  <si>
+    <t>catrinelile@yahoo.ro</t>
+  </si>
+  <si>
+    <t>andreea.vlad@mail.com</t>
+  </si>
+  <si>
+    <t>ica.toma@yahoo.com</t>
+  </si>
+  <si>
+    <t>galileafarm@yahoo.com</t>
+  </si>
+  <si>
+    <t>anastasia_rencheu@yahoo.com</t>
+  </si>
+  <si>
+    <t>doina.voiu@yahoo.com</t>
+  </si>
+  <si>
+    <t>Talpos Voiu Elena Doinas</t>
+  </si>
+  <si>
+    <t>dcatrinescu@gmail.com</t>
+  </si>
+  <si>
+    <t>b.hudrea@yahoo.com</t>
+  </si>
+  <si>
+    <t>icasomesan@yahoo.com</t>
+  </si>
+  <si>
+    <t>aclopovschi@gmail.com</t>
+  </si>
+  <si>
+    <t>gabriela_georgeta@yahoo.com</t>
+  </si>
+  <si>
+    <t>hb_andrea@yahoo.com</t>
+  </si>
+  <si>
+    <t>ancashakti@yahoo.com</t>
+  </si>
+  <si>
+    <t>angelica_uma@yahoo.com</t>
+  </si>
+  <si>
+    <t>lebedevnelea2@gmail.com</t>
+  </si>
+  <si>
+    <t>cezarus2000@yahoo.com</t>
+  </si>
+  <si>
+    <t>aam_mister@yahoo.com</t>
+  </si>
+  <si>
+    <t>venter_emma@yahoo.com</t>
+  </si>
+  <si>
+    <t>henriettamagyar@yahoo.com</t>
+  </si>
+  <si>
+    <t>ioanaandrei1919@gmail.com</t>
+  </si>
+  <si>
+    <t>mireacl@yahoo.com</t>
+  </si>
+  <si>
+    <t>mayamarcovici@yahoo.com</t>
+  </si>
+  <si>
+    <t>leonte_gaby@yahoo.com</t>
+  </si>
+  <si>
+    <t>mihaela@fundatiacomunitarabrasov.ro</t>
+  </si>
+  <si>
+    <t>mimigorga@yahoo.com</t>
+  </si>
+  <si>
+    <t>ana.titire@gmail.com</t>
+  </si>
+  <si>
+    <t>calincernatescu@yahoo.com</t>
+  </si>
+  <si>
+    <t>loredanagrozea2012@gmail.com</t>
+  </si>
+  <si>
+    <t>ioannacoman@yahoo.com</t>
+  </si>
+  <si>
+    <t>luci_mat@yahoo.com</t>
+  </si>
+  <si>
+    <t>vladut68@yahoo.com</t>
+  </si>
+  <si>
+    <t>narcismocanu@yahoo.com</t>
+  </si>
+  <si>
+    <t>anaaida75@gmail.com</t>
+  </si>
+  <si>
+    <t>cimpean_cristina@yahoo.com</t>
+  </si>
+  <si>
+    <t>adumitresei.ainara@gmail.com</t>
+  </si>
+  <si>
+    <t>carmenica.marcu@gmail.com</t>
+  </si>
+  <si>
+    <t>stoicescumihaela77@yahoo.com</t>
+  </si>
+  <si>
+    <t>constantinvoicu09@gmail.com</t>
+  </si>
+  <si>
+    <t>bontas.maria39@gmail.com</t>
+  </si>
+  <si>
+    <t>uviorica@gmail.com</t>
+  </si>
+  <si>
+    <t>cera_67@yahoo.com</t>
+  </si>
+  <si>
+    <t>piharadita@yahoo.com</t>
+  </si>
+  <si>
+    <t>costeligno@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>sb_gabi@yahoo.com</t>
+  </si>
+  <si>
+    <t>elena_dudau@yahoo.com</t>
+  </si>
+  <si>
+    <t>angelavnalbantu@yahoo.com</t>
+  </si>
+  <si>
+    <t>szabo.doina@yahoo.com</t>
+  </si>
+  <si>
+    <t>soringro@yahoo.com</t>
+  </si>
+  <si>
+    <t>amira.stoica@yahoo.com</t>
+  </si>
+  <si>
+    <t>mdanam2001@yahoo.com</t>
+  </si>
+  <si>
+    <t>augustinabusan@gmail.com</t>
+  </si>
+  <si>
+    <t>m_mihai_sv@yahoo.com</t>
+  </si>
+  <si>
+    <t>daniella_norge@yahoo.com</t>
+  </si>
+  <si>
+    <t>memessa@yahoo.com</t>
+  </si>
+  <si>
+    <t>claudius.teodorescu@gmail.com</t>
+  </si>
+  <si>
+    <t>molnarerzsebet10@yahoo.com</t>
+  </si>
+  <si>
+    <t>sporeadaniela@yahoo.com</t>
+  </si>
+  <si>
+    <t>costelaioanei@yahoo.com</t>
+  </si>
+  <si>
+    <t>n3nina@yahoo.com</t>
+  </si>
+  <si>
+    <t>munteanumihaelacarmen@gmail.com</t>
+  </si>
+  <si>
+    <t>daniela@enjoytouring.ro</t>
+  </si>
+  <si>
+    <t>valerianeacsu777@gmail.com</t>
+  </si>
+  <si>
+    <t>shakti_irina@yahoo.com</t>
+  </si>
+  <si>
+    <t>arthadora2012@gmail.com</t>
+  </si>
+  <si>
+    <t>Craciun Corina Liana</t>
+  </si>
+  <si>
+    <t>lianacapraru@yahoo.com</t>
+  </si>
+  <si>
+    <t>dragosdraganescu14@gmail.com</t>
+  </si>
+  <si>
+    <t>Draganescu Florentin Dragos</t>
+  </si>
+  <si>
+    <t>ruxandra.tulbure@gmail.com</t>
+  </si>
+  <si>
+    <t>Ruxandra Tulbure</t>
+  </si>
+  <si>
+    <t>tattyolga@yahoo.com</t>
+  </si>
+  <si>
+    <t>Parau Tatiana</t>
+  </si>
+  <si>
+    <t>b.ovidiu@yahoo.com</t>
+  </si>
+  <si>
+    <t>Buza Ovidiu</t>
+  </si>
+  <si>
+    <t>Hunecke Felicia</t>
+  </si>
+  <si>
+    <t>armattitrading@yahoo.com</t>
+  </si>
+  <si>
+    <t>Pal Mihaela</t>
+  </si>
+  <si>
+    <t>fhun8@hotmail.com</t>
+  </si>
+  <si>
+    <t>monicanechita@hotmail.com</t>
+  </si>
+  <si>
+    <t>Raduta Carmen</t>
+  </si>
+  <si>
+    <t>ionut@holistica.ro</t>
+  </si>
+  <si>
+    <t>Cristescu Vasile</t>
+  </si>
+  <si>
+    <t>Toma Ica Ionela</t>
+  </si>
+  <si>
+    <t>Clopovschi Ana Maria</t>
+  </si>
+  <si>
+    <t>Hampel Binder Andrea</t>
+  </si>
+  <si>
+    <t>Venter Emma Erika</t>
+  </si>
+  <si>
+    <t>Septimiu Vladut</t>
+  </si>
+  <si>
+    <t>ttini_iordan@yahoo.com</t>
+  </si>
+  <si>
+    <t>Ttini Iordan</t>
+  </si>
+  <si>
+    <t>Bontas Maria</t>
+  </si>
+  <si>
+    <t>rodicaeugeniastoian@gmail.com</t>
+  </si>
+  <si>
+    <t>Stoian Rodica Eugenia</t>
+  </si>
+  <si>
+    <t>paula.ciulu@gmail.com</t>
+  </si>
+  <si>
+    <t>Comsa Paula</t>
+  </si>
+  <si>
+    <t>Balutel Irina</t>
+  </si>
+  <si>
+    <t>Teodorescu Cristian</t>
+  </si>
+  <si>
+    <t>Bochis Gabriela Cristina</t>
+  </si>
+  <si>
+    <t>Panciu Diana Valentina</t>
+  </si>
+  <si>
+    <t>Ciurac Sorin</t>
+  </si>
+  <si>
+    <t>Baci Mihaela</t>
+  </si>
+  <si>
+    <t>Ivanov Marina</t>
+  </si>
+  <si>
+    <t>Colacel Lenuta</t>
+  </si>
+  <si>
+    <t>Costin Ioan Cornel</t>
+  </si>
+  <si>
+    <t>Pelin Amalia</t>
+  </si>
+  <si>
+    <t>Linca Nicoleta Carmen Eglantine</t>
+  </si>
+  <si>
+    <t>Ioja Mihaela Luminita</t>
+  </si>
+  <si>
+    <t>Trifan Doinita Blandinela</t>
+  </si>
+  <si>
+    <t>Piticas Ana Maria</t>
+  </si>
+  <si>
+    <t>Vasiliu Elena</t>
+  </si>
+  <si>
+    <t>Cioltan Anca Cristina</t>
+  </si>
+  <si>
+    <t>Gonta Eugenia</t>
+  </si>
+  <si>
+    <t>Cernatescu Calin</t>
+  </si>
+  <si>
+    <t>Capraru Liana</t>
+  </si>
+  <si>
+    <t>Piha Radita</t>
+  </si>
+  <si>
+    <t>Mihai Mariana</t>
+  </si>
+  <si>
+    <t>Molnar Erzsebet</t>
+  </si>
+  <si>
+    <t>Berbece Daniela</t>
+  </si>
+  <si>
+    <t>paduka07@yahoo.com</t>
+  </si>
+  <si>
+    <t>irina_balutel@hotmail.com</t>
+  </si>
+  <si>
+    <t>Nechita Ferreira Monica</t>
+  </si>
+  <si>
+    <t>marius_corleciuc@yahoo.com</t>
+  </si>
+  <si>
+    <t>Corleciuc Marius</t>
+  </si>
+  <si>
+    <t>kristina.lindquist.orby@telia.com</t>
+  </si>
+  <si>
+    <t>Kristina Lindquist</t>
+  </si>
+  <si>
+    <t>adela.pajunen@gmail.com</t>
+  </si>
+  <si>
+    <t>Adela Pajunen</t>
+  </si>
+  <si>
+    <t>braferdes@gmail.com</t>
+  </si>
+  <si>
+    <t>Fernando Fernandes</t>
+  </si>
+  <si>
+    <t>olga@magicon.co.uk</t>
+  </si>
+  <si>
+    <t>Olga Morozova</t>
+  </si>
+  <si>
+    <t>sonia.m.antunes@gmail.com</t>
+  </si>
+  <si>
+    <t>Antunes Sonia</t>
+  </si>
+  <si>
+    <t>mariae.jaw@gmail.com</t>
+  </si>
+  <si>
+    <t>Jaworska María</t>
+  </si>
+  <si>
+    <t>marcusschmidl@gmx.de</t>
+  </si>
+  <si>
+    <t>Marcus Aloronel Schmidl</t>
+  </si>
+  <si>
+    <t>sybila@ekohoitola.fi</t>
+  </si>
+  <si>
+    <t>Sybilla Pitkanen</t>
+  </si>
+  <si>
+    <t>sanda_sandu@yahoo.com</t>
+  </si>
+  <si>
+    <t>0765032380</t>
+  </si>
+  <si>
+    <t>0727343256</t>
+  </si>
+  <si>
+    <t>0741228820</t>
+  </si>
+  <si>
+    <t>0741178279</t>
+  </si>
+  <si>
+    <t>0748868185</t>
+  </si>
+  <si>
+    <t>0742030545</t>
+  </si>
+  <si>
+    <t>0745525405</t>
+  </si>
+  <si>
+    <t>0032477801955</t>
+  </si>
+  <si>
+    <t>0722283194</t>
+  </si>
+  <si>
+    <t>0033607444776</t>
+  </si>
+  <si>
+    <t>0733386797</t>
+  </si>
+  <si>
+    <t>07796402501</t>
+  </si>
+  <si>
+    <t>0723525528</t>
+  </si>
+  <si>
+    <t>0752094420</t>
+  </si>
+  <si>
+    <t>0749221731</t>
+  </si>
+  <si>
+    <t>0763850840</t>
+  </si>
+  <si>
+    <t>0726333128</t>
+  </si>
+  <si>
+    <t>0041793609481</t>
+  </si>
+  <si>
+    <t>0748883235</t>
+  </si>
+  <si>
+    <t>0729300200</t>
+  </si>
+  <si>
+    <t>0033665654235</t>
+  </si>
+  <si>
+    <t>0744451892</t>
+  </si>
+  <si>
+    <t>0740727088</t>
+  </si>
+  <si>
+    <t>0037369265735</t>
+  </si>
+  <si>
+    <t>0729130770</t>
+  </si>
+  <si>
+    <t>00491771470999</t>
+  </si>
+  <si>
+    <t>0730174040</t>
+  </si>
+  <si>
+    <t>0744112116</t>
+  </si>
+  <si>
+    <t>0031687728451</t>
+  </si>
+  <si>
+    <t>0742083396</t>
+  </si>
+  <si>
+    <t>0756532125</t>
+  </si>
+  <si>
+    <t>00373 67115489</t>
+  </si>
+  <si>
+    <t>00497614808223</t>
+  </si>
+  <si>
+    <t>0720010221</t>
+  </si>
+  <si>
+    <t>0722315092</t>
+  </si>
+  <si>
+    <t>0726699654</t>
+  </si>
+  <si>
+    <t>0757191402</t>
+  </si>
+  <si>
+    <t>0729142747</t>
+  </si>
+  <si>
+    <t>0037379117788</t>
+  </si>
+  <si>
+    <t>0724715233</t>
+  </si>
+  <si>
+    <t>0740091108</t>
+  </si>
+  <si>
+    <t>0031652382134</t>
+  </si>
+  <si>
+    <t>0745548274</t>
+  </si>
+  <si>
+    <t>0770116405</t>
+  </si>
+  <si>
+    <t>0743261315</t>
+  </si>
+  <si>
+    <t>0729677945</t>
+  </si>
+  <si>
+    <t>0788273444</t>
+  </si>
+  <si>
+    <t>0742201134</t>
+  </si>
+  <si>
+    <t>0743229325</t>
+  </si>
+  <si>
+    <t>0751875724</t>
+  </si>
+  <si>
+    <t>0749059662</t>
+  </si>
+  <si>
+    <t>0033686900004</t>
+  </si>
+  <si>
+    <t>0756040003</t>
+  </si>
+  <si>
+    <t>0738830090</t>
+  </si>
+  <si>
+    <t>0740074538</t>
+  </si>
+  <si>
+    <t>0744354873</t>
+  </si>
+  <si>
+    <t>0732009826</t>
+  </si>
+  <si>
+    <t>0745709428</t>
+  </si>
+  <si>
+    <t>0745094010</t>
+  </si>
+  <si>
+    <t>0730504732</t>
+  </si>
+  <si>
+    <t>0744200520</t>
+  </si>
+  <si>
+    <t>0721154673</t>
+  </si>
+  <si>
+    <t>0732113468</t>
+  </si>
+  <si>
+    <t>0735309142</t>
+  </si>
+  <si>
+    <t>0740158693</t>
+  </si>
+  <si>
+    <t>0753628117</t>
+  </si>
+  <si>
+    <t>0756789453</t>
+  </si>
+  <si>
+    <t>0744114963</t>
+  </si>
+  <si>
+    <t>0754221895</t>
+  </si>
+  <si>
+    <t>0728319261</t>
+  </si>
+  <si>
+    <t>0748902333</t>
+  </si>
+  <si>
+    <t>0744511177</t>
+  </si>
+  <si>
+    <t>0033643868549</t>
+  </si>
+  <si>
+    <t>0787270892</t>
+  </si>
+  <si>
+    <t>0726250338</t>
+  </si>
+  <si>
+    <t>0767056708</t>
+  </si>
+  <si>
+    <t>0744478737</t>
+  </si>
+  <si>
+    <t>0742705556</t>
+  </si>
+  <si>
+    <t>0753864908</t>
+  </si>
+  <si>
+    <t>0758527832</t>
+  </si>
+  <si>
+    <t>0749020388</t>
+  </si>
+  <si>
+    <t>0770833871</t>
+  </si>
+  <si>
+    <t>0744351956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novojen Olga Brianalea </t>
+  </si>
+  <si>
+    <t>0037369815388</t>
+  </si>
+  <si>
+    <t>0740130880</t>
+  </si>
+  <si>
+    <t>0723302732</t>
+  </si>
+  <si>
+    <t>0744201401</t>
+  </si>
+  <si>
+    <t>0745153040</t>
+  </si>
+  <si>
+    <t>0740794517</t>
+  </si>
+  <si>
+    <t>0754535417</t>
+  </si>
+  <si>
+    <t>0720049170</t>
+  </si>
+  <si>
+    <t>0733491677</t>
+  </si>
+  <si>
+    <t>0741514627</t>
+  </si>
+  <si>
+    <t>0037368174764</t>
+  </si>
+  <si>
+    <t>0748024714</t>
+  </si>
+  <si>
+    <t>0736161819</t>
+  </si>
+  <si>
+    <t>0751828263</t>
+  </si>
+  <si>
+    <t>0744705023</t>
+  </si>
+  <si>
+    <t>0737164798</t>
+  </si>
+  <si>
+    <t>0770104628</t>
+  </si>
+  <si>
+    <t>0035797782866</t>
+  </si>
+  <si>
+    <t>0748702514</t>
+  </si>
+  <si>
+    <t>0767086957</t>
+  </si>
+  <si>
+    <t>0755421228</t>
+  </si>
+  <si>
+    <t>0770673971</t>
+  </si>
+  <si>
+    <t>0744552753</t>
+  </si>
+  <si>
+    <t>0726333121</t>
+  </si>
+  <si>
+    <t>0725362121</t>
+  </si>
+  <si>
+    <t>0771790783</t>
+  </si>
+  <si>
+    <t>0745570983</t>
+  </si>
+  <si>
+    <t>0773787056</t>
+  </si>
+  <si>
+    <t>0721455484</t>
+  </si>
+  <si>
+    <t>0723385958</t>
+  </si>
+  <si>
+    <t>0765706725</t>
+  </si>
+  <si>
+    <t>0761054825</t>
+  </si>
+  <si>
+    <t>0727030558</t>
+  </si>
+  <si>
+    <t>0726489020</t>
+  </si>
+  <si>
+    <t>0724542131</t>
+  </si>
+  <si>
+    <t>0740534989</t>
+  </si>
+  <si>
+    <t>0767148712</t>
+  </si>
+  <si>
+    <t>0771143821</t>
+  </si>
+  <si>
+    <t>0746144508</t>
+  </si>
+  <si>
+    <t>0746846470</t>
+  </si>
+  <si>
+    <t>0721808946</t>
+  </si>
+  <si>
+    <t>0770725168</t>
+  </si>
+  <si>
+    <t>0773845707</t>
+  </si>
+  <si>
+    <t>0744697089</t>
+  </si>
+  <si>
+    <t>0721235758</t>
+  </si>
+  <si>
+    <t>0771756831</t>
+  </si>
+  <si>
+    <t>0722257662</t>
+  </si>
+  <si>
+    <t>0740650974</t>
+  </si>
+  <si>
+    <t>0740849383</t>
+  </si>
+  <si>
+    <t>0722286104</t>
+  </si>
+  <si>
+    <t>0770311435</t>
+  </si>
+  <si>
+    <t>0723360895</t>
+  </si>
+  <si>
+    <t>0749093907</t>
+  </si>
+  <si>
+    <t>0724278977</t>
+  </si>
+  <si>
+    <t>0744761408</t>
+  </si>
+  <si>
+    <t>0733325750</t>
+  </si>
+  <si>
+    <t>0741330282</t>
+  </si>
+  <si>
+    <t>0729203768</t>
+  </si>
+  <si>
+    <t>0744595897</t>
+  </si>
+  <si>
+    <t>0742976857</t>
+  </si>
+  <si>
+    <t>0744409777</t>
+  </si>
+  <si>
+    <t>0721258249</t>
+  </si>
+  <si>
+    <t>0041779995351</t>
+  </si>
+  <si>
+    <t>0752240280</t>
+  </si>
+  <si>
+    <t>0752520175</t>
+  </si>
+  <si>
+    <t>0037379540603</t>
+  </si>
+  <si>
+    <t>0037369945527</t>
+  </si>
+  <si>
+    <t>0727762022</t>
+  </si>
+  <si>
+    <t>0720568563</t>
+  </si>
+  <si>
+    <t>0745345955</t>
+  </si>
+  <si>
+    <t>0757678280</t>
+  </si>
+  <si>
+    <t>0726337328</t>
+  </si>
+  <si>
+    <t>0742257979</t>
+  </si>
+  <si>
+    <t>0721471807</t>
+  </si>
+  <si>
+    <t>0755662099</t>
+  </si>
+  <si>
+    <t>0743241140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandu Niculina Sanda </t>
+  </si>
+  <si>
+    <t>004522212002</t>
+  </si>
+  <si>
+    <t>0742225239</t>
+  </si>
+  <si>
+    <t>0034666220586</t>
+  </si>
+  <si>
+    <t>0728026939</t>
+  </si>
+  <si>
+    <t>0769070556</t>
+  </si>
+  <si>
+    <t>0740136283</t>
+  </si>
+  <si>
+    <t>0749662869</t>
+  </si>
+  <si>
+    <t>0720713277</t>
+  </si>
+  <si>
+    <t>0033650461085</t>
+  </si>
+  <si>
+    <t>0722752007</t>
+  </si>
+  <si>
+    <t>0741037058</t>
+  </si>
+  <si>
+    <t>0754214885</t>
+  </si>
+  <si>
+    <t>0723200941</t>
+  </si>
+  <si>
+    <t>0723191854</t>
+  </si>
+  <si>
+    <t>0724206221</t>
+  </si>
+  <si>
+    <t>0747074081</t>
+  </si>
+  <si>
+    <t>0755221960</t>
+  </si>
+  <si>
+    <t>0740371574</t>
+  </si>
+  <si>
+    <t>0741171563</t>
+  </si>
+  <si>
+    <t>0721717664</t>
+  </si>
+  <si>
+    <t>0740759994</t>
+  </si>
+  <si>
+    <t>0751228129</t>
+  </si>
+  <si>
+    <t>0722279586</t>
+  </si>
+  <si>
+    <t>0753046757</t>
+  </si>
+  <si>
+    <t>0771015785</t>
+  </si>
+  <si>
+    <t>0746074897</t>
+  </si>
+  <si>
+    <t>0012032470380</t>
+  </si>
+  <si>
+    <t>0774401524</t>
+  </si>
+  <si>
+    <t>0742073253</t>
+  </si>
+  <si>
+    <t>0033650139553</t>
+  </si>
+  <si>
+    <t>0724594941</t>
+  </si>
+  <si>
+    <t>0727815937</t>
+  </si>
+  <si>
+    <t>0729915348</t>
+  </si>
+  <si>
+    <t>0722453570</t>
+  </si>
+  <si>
+    <t>0741257930</t>
+  </si>
+  <si>
+    <t>0787339422</t>
+  </si>
+  <si>
+    <t>0752626515</t>
+  </si>
+  <si>
+    <t>0728860472</t>
+  </si>
+  <si>
+    <t>0758736352</t>
+  </si>
+  <si>
+    <t>0745538384</t>
+  </si>
+  <si>
+    <t>0740892806</t>
+  </si>
+  <si>
+    <t>0751079222</t>
+  </si>
+  <si>
+    <t>0749716909</t>
+  </si>
+  <si>
+    <t>0741559352</t>
+  </si>
+  <si>
+    <t>0720821912</t>
+  </si>
+  <si>
+    <t>0721673610</t>
+  </si>
+  <si>
+    <t>0046762583313</t>
+  </si>
+  <si>
+    <t>00358504029705</t>
+  </si>
+  <si>
+    <t>0351962690254</t>
+  </si>
+  <si>
+    <t>00447982717277</t>
+  </si>
+  <si>
+    <t>00351915716540</t>
+  </si>
+  <si>
+    <t>0034622739223</t>
+  </si>
+  <si>
+    <t>00491782389055</t>
+  </si>
+  <si>
+    <t>00358445957318</t>
+  </si>
+  <si>
+    <t>0784183831</t>
+  </si>
+  <si>
+    <t>0744540532</t>
+  </si>
+  <si>
+    <t>0234532136</t>
+  </si>
+  <si>
+    <t>0761198521</t>
+  </si>
+  <si>
+    <t>0740655254</t>
+  </si>
+  <si>
+    <t>00447517669335</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +2010,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +2071,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,32 +2421,2434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C74" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>741967453</v>
+      <c r="C97" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="B211" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B212" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B213" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B214" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="B215" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B216" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B217" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B218" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B219" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{83B3FA65-DB62-4C8F-BFA6-C900381CF161}"/>
+    <hyperlink ref="A192" r:id="rId2" xr:uid="{B2CF8317-A7C0-45A4-B320-975B02216C06}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>